--- a/interfaceTest-demo/doc/activiti.xlsx
+++ b/interfaceTest-demo/doc/activiti.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="activiti" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>流程中心api</t>
   </si>
@@ -83,6 +83,42 @@
     <t>getHighlighted</t>
   </si>
   <si>
+    <t>act-common-controller</t>
+  </si>
+  <si>
+    <t>/activiti/common/getBizFormData</t>
+  </si>
+  <si>
+    <t>getBizFormData</t>
+  </si>
+  <si>
+    <t>/activiti/common/getStartFlowForm</t>
+  </si>
+  <si>
+    <t>getStartFlowForm</t>
+  </si>
+  <si>
+    <t>/activiti/common/saveBizActFormData</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>saveBizActFormData</t>
+  </si>
+  <si>
+    <t>/activiti/common/start</t>
+  </si>
+  <si>
+    <t>startWorkflow</t>
+  </si>
+  <si>
+    <t>/activiti/common/task/complete/{processInstanceId}</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
     <t>act-flow-config-controller</t>
   </si>
   <si>
@@ -161,6 +197,39 @@
     <t>/activiti/flowconfig/listFlowNotifyConfig</t>
   </si>
   <si>
+    <t>act-form-controller</t>
+  </si>
+  <si>
+    <t>/activiti/form/deleteForm</t>
+  </si>
+  <si>
+    <t>deleteForm</t>
+  </si>
+  <si>
+    <t>/activiti/form/getActForm</t>
+  </si>
+  <si>
+    <t>getActForm</t>
+  </si>
+  <si>
+    <t>/activiti/form/list</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>/activiti/form/saveOrUpdateForm</t>
+  </si>
+  <si>
+    <t>saveOrUpdateForm</t>
+  </si>
+  <si>
+    <t>/activiti/form/updateFormConfig</t>
+  </si>
+  <si>
+    <t>updateFormConfig</t>
+  </si>
+  <si>
     <t>act-model-controller</t>
   </si>
   <si>
@@ -173,9 +242,6 @@
     <t>/activiti/model/create</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>create</t>
   </si>
   <si>
@@ -305,9 +371,6 @@
     <t>/activiti/task/complete</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>/activiti/task/currentForm</t>
   </si>
   <si>
@@ -590,7 +653,7 @@
     <t>/error</t>
   </si>
   <si>
-    <t>error</t>
+    <t>errorHtml</t>
   </si>
   <si>
     <t>ue-form-controller</t>
@@ -728,18 +791,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1032,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1198,13 +1261,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1215,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1232,13 +1295,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1249,13 +1312,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1263,16 +1326,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1280,16 +1343,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1297,16 +1360,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1314,16 +1377,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1331,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -1348,16 +1411,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1365,16 +1428,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1382,16 +1445,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1399,16 +1462,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1416,16 +1479,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1433,16 +1496,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1450,16 +1513,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1467,16 +1530,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1484,16 +1547,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1501,16 +1564,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1518,16 +1581,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1535,16 +1598,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1552,16 +1615,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1569,16 +1632,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1586,16 +1649,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1603,16 +1666,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1620,16 +1683,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1637,16 +1700,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1654,16 +1717,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1671,16 +1734,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1688,16 +1751,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1705,16 +1768,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1722,16 +1785,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1739,16 +1802,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1756,16 +1819,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1773,16 +1836,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1790,16 +1853,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1807,16 +1870,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1824,16 +1887,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1841,16 +1904,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1858,16 +1921,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1875,16 +1938,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1892,16 +1955,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1909,16 +1972,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1926,16 +1989,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1943,16 +2006,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1960,16 +2023,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1977,16 +2040,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1994,16 +2057,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2011,16 +2074,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2028,16 +2091,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2045,16 +2108,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2062,16 +2125,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2079,16 +2142,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2096,16 +2159,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2113,16 +2176,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2130,16 +2193,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2147,16 +2210,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2164,16 +2227,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2181,13 +2244,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
@@ -2198,16 +2261,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2215,16 +2278,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2232,16 +2295,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2249,16 +2312,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2266,16 +2329,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2283,16 +2346,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2300,16 +2363,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2317,16 +2380,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2334,16 +2397,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2351,16 +2414,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2368,16 +2431,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2385,16 +2448,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2402,16 +2465,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2419,13 +2482,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
         <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
         <v>162</v>
@@ -2436,16 +2499,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
         <v>163</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
         <v>164</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2453,16 +2516,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
         <v>166</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2470,16 +2533,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
         <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2487,16 +2550,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2504,16 +2567,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2521,16 +2584,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2538,16 +2601,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2555,16 +2618,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2572,16 +2635,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2589,16 +2652,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2606,16 +2669,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2623,16 +2686,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2640,16 +2703,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2657,16 +2720,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2674,16 +2737,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2691,16 +2754,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2708,16 +2771,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2725,16 +2788,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2742,16 +2805,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2759,16 +2822,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2776,16 +2839,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2793,16 +2856,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2810,16 +2873,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D105" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2827,16 +2890,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2844,16 +2907,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2861,16 +2924,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2878,16 +2941,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2895,16 +2958,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2912,16 +2975,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2929,16 +2992,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2946,16 +3009,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2963,16 +3026,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2980,16 +3043,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E115" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2997,16 +3060,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
         <v>209</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3014,13 +3077,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
         <v>211</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E117" t="s">
         <v>212</v>
@@ -3031,16 +3094,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3048,16 +3111,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3065,16 +3128,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3082,16 +3145,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3099,19 +3162,189 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E122" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>213</v>
+      </c>
+      <c r="C128" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D131" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>